--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -2299,11 +2299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2583,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -4229,11 +4229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
@@ -2495,7 +2495,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2583,7 +2583,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -4230,10 +4230,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,6 +4251,7 @@
     <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2300,7 +2300,7 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
@@ -2583,7 +2583,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="296">
   <si>
     <t>6</t>
   </si>
@@ -1802,6 +1802,9 @@
   </si>
   <si>
     <t>19,543.80</t>
+  </si>
+  <si>
+    <t>046H</t>
   </si>
 </sst>
 </file>
@@ -2300,10 +2303,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2810,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>173</v>
@@ -4230,10 +4233,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,10 +2303,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2702,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>173</v>
@@ -4233,10 +4233,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
@@ -2702,7 +2702,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>173</v>
@@ -4233,10 +4233,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2702,7 +2702,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>173</v>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,7 +2303,7 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
@@ -2702,7 +2702,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>173</v>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,10 +2303,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2864,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -4233,7 +4233,7 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B17" sqref="B17"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -948,9 +948,6 @@
     <t>1186CP</t>
   </si>
   <si>
-    <t>45.83</t>
-  </si>
-  <si>
     <t>PerfMap</t>
   </si>
   <si>
@@ -1805,6 +1802,9 @@
   </si>
   <si>
     <t>046H</t>
+  </si>
+  <si>
+    <t>7.05</t>
   </si>
 </sst>
 </file>
@@ -2302,11 +2302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="5"/>
     </row>
@@ -2476,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2498,7 +2498,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2514,13 +2514,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>10</v>
@@ -2538,7 +2538,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2548,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>8</v>
@@ -2566,10 +2566,10 @@
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>8</v>
@@ -2580,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -2596,7 +2596,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2614,13 +2614,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="11"/>
       <c r="M12" s="9"/>
@@ -2630,13 +2630,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2646,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -2662,13 +2662,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11"/>
       <c r="M15" s="9"/>
@@ -2678,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="8"/>
@@ -2696,16 +2696,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="8"/>
@@ -2723,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2732,7 +2732,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="8"/>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="9"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="8"/>
@@ -2759,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="8"/>
@@ -2777,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="8"/>
@@ -2795,7 +2795,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2804,16 +2804,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="8"/>
@@ -2831,7 +2831,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="8"/>
@@ -2849,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2858,13 +2858,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,16 +2874,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -2892,7 +2892,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="8"/>
@@ -2907,23 +2907,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2931,22 +2931,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,22 +2954,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2977,22 +2977,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3000,22 +3000,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3023,22 +3023,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3046,23 +3046,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3070,23 +3070,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3094,23 +3094,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3118,23 +3118,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,23 +3142,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3166,23 +3166,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3190,23 +3190,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3214,22 +3214,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3237,23 +3237,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3261,23 +3261,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3285,23 +3285,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3309,23 +3309,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3333,23 +3333,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3357,23 +3357,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K48" s="10"/>
     </row>
@@ -3382,23 +3382,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,23 +3406,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3430,23 +3430,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3454,23 +3454,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,23 +3478,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,23 +3502,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3526,23 +3526,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,23 +3550,23 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3574,23 +3574,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,23 +3598,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3622,23 +3622,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,23 +3646,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I60" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3670,23 +3670,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,23 +3694,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I62" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3718,23 +3718,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3742,23 +3742,23 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3766,23 +3766,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3790,22 +3790,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" s="6"/>
     </row>
@@ -3814,13 +3814,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="8"/>
@@ -3832,22 +3832,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" s="8"/>
     </row>
@@ -3856,22 +3856,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="8"/>
     </row>
@@ -3880,22 +3880,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" s="8"/>
     </row>
@@ -3904,22 +3904,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" s="8"/>
     </row>
@@ -3928,22 +3928,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="8"/>
     </row>
@@ -3952,13 +3952,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3970,20 +3970,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3991,20 +3991,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4012,16 +4012,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,16 +4029,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,23 +4046,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4070,10 +4070,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,7 +4105,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4113,7 +4113,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4129,7 +4129,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4145,13 +4145,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6" t="s">
@@ -4163,19 +4163,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4183,19 +4183,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4215,10 +4215,10 @@
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4232,11 +4232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4360,46 +4360,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -4470,14 +4470,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4487,22 +4487,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" t="s">
         <v>196</v>
       </c>
-      <c r="F10" t="s">
-        <v>197</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4510,22 +4510,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4533,7 +4533,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
@@ -4543,7 +4543,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
@@ -4553,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -4563,13 +4563,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -4585,7 +4585,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -4593,119 +4593,119 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>287</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4714,7 +4714,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -4738,97 +4738,97 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4846,7 +4846,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4862,22 +4862,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4886,7 +4886,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -4894,7 +4894,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -4902,7 +4902,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -4910,79 +4910,79 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5007,7 +5007,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5023,7 +5023,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="30" x14ac:dyDescent="0.25">
@@ -5039,7 +5039,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
@@ -5063,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
@@ -5071,7 +5071,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
@@ -5087,7 +5087,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="30" x14ac:dyDescent="0.25">
@@ -5103,7 +5103,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5111,7 +5111,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
@@ -5119,7 +5119,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
@@ -5127,7 +5127,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
@@ -5135,67 +5135,67 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5214,19 +5214,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
@@ -5258,7 +5258,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5266,106 +5266,106 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>269</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5373,7 +5373,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
@@ -5389,7 +5389,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
@@ -5397,7 +5397,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
@@ -5405,79 +5405,79 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="W56" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="Y56" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5502,7 +5502,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="30" x14ac:dyDescent="0.25">
@@ -5518,7 +5518,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
@@ -5550,7 +5550,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
@@ -5558,7 +5558,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
@@ -5566,7 +5566,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
@@ -5574,7 +5574,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -5590,36 +5590,36 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="17" t="s">
+      <c r="G68" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="H68" s="17"/>
       <c r="I68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5627,20 +5627,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5649,20 +5649,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5671,31 +5671,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" t="s">
         <v>104</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" t="s">
         <v>106</v>
-      </c>
-      <c r="J71" t="s">
-        <v>107</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5704,31 +5704,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="E72" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I72" t="s">
         <v>109</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H72" s="17" t="s">
+      <c r="M72" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="I72" t="s">
+      <c r="N72" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5739,85 +5739,85 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="I73" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="K73" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J73" s="17" t="s">
+      <c r="L73" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="W73" t="s">
+        <v>146</v>
+      </c>
+      <c r="X73" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z73" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="S73" s="20" t="s">
+      <c r="AA73" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>145</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="W73" t="s">
-        <v>147</v>
-      </c>
-      <c r="X73" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5825,7 +5825,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5833,16 +5833,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5858,19 +5858,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="D77" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>141</v>
-      </c>
       <c r="F77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5888,10 +5888,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5901,13 +5901,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,13 +5915,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,13 +5929,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,13 +5943,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,13 +5957,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,13 +5971,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,13 +5985,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -1804,7 +1804,7 @@
     <t>046H</t>
   </si>
   <si>
-    <t>7.05</t>
+    <t>11.36</t>
   </si>
 </sst>
 </file>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -2302,11 +2302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2586,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -4232,7 +4232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,10 +2303,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +2514,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -2792,7 +2792,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>172</v>
@@ -4233,20 +4233,22 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -4254,6 +4256,17 @@
     <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
   <si>
     <t>6</t>
   </si>
@@ -1255,9 +1255,6 @@
   </si>
   <si>
     <t>D15</t>
-  </si>
-  <si>
-    <t>173H</t>
   </si>
   <si>
     <t>27,069.0</t>
@@ -2303,10 +2300,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2498,7 +2495,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2538,7 +2535,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2586,7 +2583,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2605,7 +2602,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2636,7 +2633,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2702,10 +2699,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2723,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2759,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2777,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2795,7 +2792,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2810,10 +2807,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2831,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2849,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2864,7 +2861,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2883,7 +2880,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3023,13 +3020,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3080,7 +3077,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3110,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3214,7 +3211,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3271,7 +3268,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3406,7 +3403,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3512,7 +3509,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3560,7 +3557,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3584,7 +3581,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3608,7 +3605,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3622,7 +3619,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3632,7 +3629,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3656,7 +3653,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3680,7 +3677,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3704,7 +3701,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3724,11 +3721,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3752,7 +3749,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3776,7 +3773,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3934,7 +3931,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="6" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>6</v>
@@ -3952,13 +3949,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3970,10 +3967,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3991,10 +3988,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4012,16 +4009,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,16 +4026,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4046,13 +4043,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4070,10 +4067,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4078,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,7 +4086,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,7 +4094,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,7 +4102,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4113,7 +4110,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,7 +4118,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4129,7 +4126,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4137,7 +4134,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4145,7 +4142,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4163,19 +4160,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4183,19 +4180,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>179</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4203,7 +4200,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4433,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4487,10 +4484,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4503,19 +4500,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" t="s">
         <v>195</v>
       </c>
-      <c r="F10" t="s">
-        <v>196</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4526,19 +4523,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4579,10 +4576,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4609,116 +4606,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4754,94 +4751,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4878,19 +4875,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4926,76 +4923,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>258</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5052,7 +5049,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5116,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5151,64 +5148,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5227,19 +5224,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5271,7 +5268,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5282,103 +5279,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5421,76 +5418,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="W56" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="Y56" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5531,7 +5528,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5612,7 +5609,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5625,14 +5622,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M68" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5653,7 +5650,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5675,7 +5672,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5687,13 +5684,13 @@
         <v>101</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D71" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="F71" t="s">
         <v>102</v>
@@ -5723,25 +5720,25 @@
         <v>108</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="I72" t="s">
         <v>109</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N72" s="17" t="s">
         <v>110</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5752,85 +5749,85 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="I73" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="K73" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J73" s="17" t="s">
+      <c r="L73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="W73" t="s">
+        <v>145</v>
+      </c>
+      <c r="X73" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z73" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="S73" s="20" t="s">
+      <c r="AA73" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="W73" t="s">
-        <v>146</v>
-      </c>
-      <c r="X73" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5838,7 +5835,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5846,16 +5843,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5863,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5871,19 +5868,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>139</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5901,10 +5898,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5914,13 +5911,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5928,13 +5925,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>165</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,13 +5939,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5956,13 +5953,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,13 +5967,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5984,13 +5981,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5998,13 +5995,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="293">
   <si>
     <t>6</t>
   </si>
@@ -1239,15 +1239,6 @@
     <t>Planning Dashboard</t>
   </si>
   <si>
-    <t>H&amp;P 479</t>
-  </si>
-  <si>
-    <t>Eddy</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>D13</t>
   </si>
   <si>
@@ -1257,18 +1248,6 @@
     <t>D15</t>
   </si>
   <si>
-    <t>27,069.0</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>$4,259,073.50</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
     <t>AFE Predictor</t>
   </si>
   <si>
@@ -1297,9 +1276,6 @@
   </si>
   <si>
     <t>04/15/2022</t>
-  </si>
-  <si>
-    <t>01/12/2023</t>
   </si>
   <si>
     <t>$ 0.124M</t>
@@ -1802,6 +1778,24 @@
   </si>
   <si>
     <t>11.36</t>
+  </si>
+  <si>
+    <t>10/04/2022</t>
+  </si>
+  <si>
+    <t>19,826.0</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>$3,471,541.50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -2299,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2473,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2495,7 +2489,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2535,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2583,7 +2577,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2602,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2633,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2699,10 +2693,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2720,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2756,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2774,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2792,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2807,10 +2801,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2828,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2846,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2861,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2880,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3020,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3077,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3107,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3211,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3268,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3403,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3509,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3557,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3581,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3605,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3619,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3629,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3653,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3677,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3701,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3721,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3749,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3773,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3949,13 +3943,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3967,10 +3961,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3988,10 +3982,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4009,16 +4003,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4026,16 +4020,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4043,13 +4037,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4067,10 +4061,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4078,7 +4072,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4086,7 +4080,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4094,7 +4088,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4102,7 +4096,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4110,7 +4104,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4118,7 +4112,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4126,7 +4120,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4134,7 +4128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4142,7 +4136,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4160,19 +4154,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4180,19 +4174,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4200,7 +4194,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4229,11 +4223,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,13 +4397,13 @@
         <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4430,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4484,10 +4478,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4500,19 +4494,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4523,19 +4517,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4576,10 +4570,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4606,116 +4600,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AF18" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AG18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP18" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4751,94 +4745,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="L22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4875,19 +4869,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4923,76 +4917,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="N29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="U29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="X29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q29" s="10" t="s">
+      <c r="Y29" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="R29" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="Z29" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5049,7 +5043,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5113,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5148,64 +5142,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="N46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="O46" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="P46" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5224,19 +5218,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5268,7 +5262,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5279,103 +5273,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q51" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="S51" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E51" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" s="28" t="s">
+      <c r="T51" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>266</v>
-      </c>
       <c r="Y51" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5418,76 +5412,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="S56" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K56" s="10" t="s">
+      <c r="Y56" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z56" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M56" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="T56" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="W56" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y56" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z56" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5528,7 +5522,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5609,7 +5603,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5622,14 +5616,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5650,7 +5644,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5672,7 +5666,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5684,13 +5678,13 @@
         <v>101</v>
       </c>
       <c r="C71" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>132</v>
-      </c>
       <c r="E71" s="17" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
         <v>102</v>
@@ -5717,28 +5711,28 @@
         <v>107</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5749,85 +5743,85 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="T73" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J73" s="17" t="s">
+      <c r="U73" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="V73" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="S73" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="W73" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X73" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Y73" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Z73" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AA73" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AB73" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5835,7 +5829,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5843,16 +5837,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5860,7 +5854,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5868,19 +5862,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5898,10 +5892,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5911,13 +5905,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,13 +5919,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,13 +5933,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,13 +5947,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5967,13 +5961,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,13 +5975,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,13 +5989,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -1269,13 +1269,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>05/31/2022</t>
-  </si>
-  <si>
     <t>03/24/2018</t>
-  </si>
-  <si>
-    <t>04/15/2022</t>
   </si>
   <si>
     <t>$ 0.124M</t>
@@ -1796,6 +1790,12 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>04/16/2022</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2489,7 +2489,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2529,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2577,7 +2577,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2693,10 +2693,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2801,10 +2801,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3014,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3101,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3397,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3613,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3715,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3949,7 +3949,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3961,10 +3961,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3982,10 +3982,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4003,16 +4003,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4020,16 +4020,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4037,13 +4037,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4061,10 +4061,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4072,7 +4072,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4136,7 +4136,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4154,19 +4154,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4174,19 +4174,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4227,7 +4227,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4424,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4478,10 +4478,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4494,19 +4494,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4517,19 +4517,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4570,10 +4570,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4600,116 +4600,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="W18" s="28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD18" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="AC18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AE18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP18" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="AE18" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4745,94 +4745,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="N22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="AB22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4869,19 +4869,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4917,76 +4917,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="H29" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="M29" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="Q29" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="R29" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="S29" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="T29" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="W29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="V29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5043,7 +5043,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5142,64 +5142,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="E46" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5218,19 +5218,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5273,103 +5273,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="O51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="S51" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="T51" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="U51" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="V51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5412,76 +5412,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J56" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="V56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="V56" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="W56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="Y56" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5522,7 +5522,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5616,14 +5616,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5644,7 +5644,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5666,7 +5666,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5681,10 +5681,10 @@
         <v>117</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s">
         <v>102</v>
@@ -5714,25 +5714,25 @@
         <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="N72" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="O72" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="N72" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5746,7 +5746,7 @@
         <v>111</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>116</v>
@@ -5764,64 +5764,64 @@
         <v>112</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K73" s="17" t="s">
         <v>117</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="M73" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>146</v>
-      </c>
       <c r="O73" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R73" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S73" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="W73" t="s">
         <v>135</v>
       </c>
-      <c r="T73" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="U73" s="20" t="s">
+      <c r="X73" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z73" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="V73" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="W73" t="s">
-        <v>137</v>
-      </c>
-      <c r="X73" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z73" s="21" t="s">
+      <c r="AA73" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5837,16 +5837,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5862,19 +5862,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5892,10 +5892,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5905,13 +5905,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,13 +5919,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +5933,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,13 +5947,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,13 +5961,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +5975,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,13 +5989,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
   <si>
     <t>6</t>
   </si>
@@ -2293,11 +2293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="G70" sqref="G70:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,15 +3855,9 @@
       <c r="F69" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3879,15 +3873,9 @@
       <c r="F70" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4223,11 +4211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -1209,9 +1209,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
     <t>AJ's</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>CONTRACT LABOR-OPERATIONS</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2489,7 +2489,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2529,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2577,7 +2577,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2693,10 +2693,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2801,10 +2801,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3014,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3101,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3397,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3613,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3715,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3883,7 +3883,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="8"/>
@@ -3907,7 +3907,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="8"/>
@@ -3931,13 +3931,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3949,10 +3949,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3970,10 +3970,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3991,16 +3991,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,16 +4008,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4025,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4049,10 +4049,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,7 +4108,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4142,19 +4142,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,19 +4162,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4211,7 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4223,7 +4223,7 @@
     <col min="1" max="1" width="3" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="9" bestFit="1" customWidth="1"/>
@@ -4385,13 +4385,13 @@
         <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4412,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4466,10 +4466,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4482,19 +4482,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" t="s">
         <v>184</v>
       </c>
-      <c r="F10" t="s">
-        <v>185</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4558,10 +4558,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4588,116 +4588,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4733,94 +4733,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4857,19 +4857,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4905,76 +4905,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5031,7 +5031,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5130,64 +5130,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>222</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5206,19 +5206,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5261,103 +5261,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5400,76 +5400,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="W56" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="Y56" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5510,7 +5510,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5604,14 +5604,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M68" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5632,7 +5632,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5648,13 +5648,13 @@
         <v>95</v>
       </c>
       <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F70" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5663,31 +5663,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="H71" t="s">
         <v>103</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" t="s">
         <v>105</v>
-      </c>
-      <c r="J71" t="s">
-        <v>106</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5696,31 +5696,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5731,85 +5731,85 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="I73" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="K73" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I73" s="17" t="s">
+      <c r="L73" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O73" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="P73" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="W73" t="s">
+        <v>134</v>
+      </c>
+      <c r="X73" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z73" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="S73" s="20" t="s">
+      <c r="AA73" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="W73" t="s">
-        <v>135</v>
-      </c>
-      <c r="X73" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5817,7 +5817,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5825,16 +5825,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5842,7 +5842,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5850,19 +5850,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>127</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>128</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5880,10 +5880,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5893,13 +5893,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,13 +5907,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,13 +5921,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,13 +5935,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,13 +5949,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,13 +5963,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,13 +5977,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -1443,9 +1443,6 @@
     <t>Ops Summary + Last4Wells KPIs</t>
   </si>
   <si>
-    <t>Wages</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>CONTRACT LABOR-OPERATIONS</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2801,7 +2801,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>160</v>
@@ -2855,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3014,7 +3014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3397,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3613,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3952,7 +3952,7 @@
         <v>123</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3973,7 +3973,7 @@
         <v>124</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4000,7 +4000,7 @@
         <v>164</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>164</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4215,7 +4215,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4466,10 +4466,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4482,19 +4482,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
         <v>183</v>
       </c>
-      <c r="F10" t="s">
-        <v>184</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4588,116 +4588,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>205</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4733,94 +4733,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4857,19 +4857,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4905,76 +4905,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5031,7 +5031,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5130,64 +5130,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>226</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5206,19 +5206,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5261,103 +5261,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5400,76 +5400,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5510,7 +5510,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5604,7 +5604,7 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5632,7 +5632,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5654,7 +5654,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5702,25 +5702,25 @@
         <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5828,10 +5828,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
         <v>173</v>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -1443,9 +1443,6 @@
     <t>Ops Summary + Last4Wells KPIs</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Total - 5.4 mins</t>
   </si>
   <si>
@@ -1792,10 +1789,13 @@
     <t>06/01/2022</t>
   </si>
   <si>
-    <t>CONTRACT LABOR-OPERATIONS</t>
-  </si>
-  <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Operations</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2801,7 +2801,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>160</v>
@@ -2855,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3014,7 +3014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3397,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3613,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3952,7 +3952,7 @@
         <v>123</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3973,7 +3973,7 @@
         <v>124</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4000,7 +4000,7 @@
         <v>164</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,7 +4017,7 @@
         <v>164</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4215,7 +4215,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,7 +4412,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4466,10 +4466,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4482,19 +4482,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
         <v>182</v>
       </c>
-      <c r="F10" t="s">
-        <v>183</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4588,116 +4588,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>276</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4733,94 +4733,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4857,19 +4857,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>180</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4905,76 +4905,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5031,7 +5031,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5095,7 +5095,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5130,64 +5130,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>225</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5206,19 +5206,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5250,7 +5250,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5261,103 +5261,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5400,76 +5400,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>231</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>231</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5510,7 +5510,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5604,7 +5604,7 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5632,7 +5632,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5654,7 +5654,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5702,25 +5702,25 @@
         <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5828,10 +5828,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
         <v>173</v>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="293">
   <si>
     <t>6</t>
   </si>
@@ -2293,11 +2293,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70:I70"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,15 +3915,9 @@
       <c r="F72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4211,11 +4205,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="294">
   <si>
     <t>6</t>
   </si>
@@ -1426,9 +1426,6 @@
   </si>
   <si>
     <t>17,869</t>
-  </si>
-  <si>
-    <t>$173,799</t>
   </si>
   <si>
     <t>STATE AL</t>
@@ -1796,6 +1793,12 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>HP 427</t>
+  </si>
+  <si>
+    <t>$499,373</t>
   </si>
 </sst>
 </file>
@@ -2293,11 +2296,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72:I72"/>
+      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2529,7 +2532,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2801,7 +2804,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>160</v>
@@ -2855,7 +2858,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3014,7 +3017,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -3205,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3397,7 +3400,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3613,7 +3616,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3715,7 +3718,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
@@ -3915,9 +3918,15 @@
       <c r="F72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3946,7 +3955,7 @@
         <v>123</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3967,7 +3976,7 @@
         <v>124</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3994,7 +4003,7 @@
         <v>164</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,7 +4020,7 @@
         <v>164</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,7 +4034,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4139,7 +4148,7 @@
         <v>165</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
@@ -4159,7 +4168,7 @@
         <v>166</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
@@ -4205,11 +4214,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,6 +4238,7 @@
     <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -4406,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4460,10 +4470,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4476,19 +4486,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
         <v>181</v>
       </c>
-      <c r="F10" t="s">
-        <v>182</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4499,19 +4509,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4582,116 +4592,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>275</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4727,94 +4737,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4851,19 +4861,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>179</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4899,76 +4909,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5025,7 +5035,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5089,7 +5099,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5124,64 +5134,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5200,19 +5210,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5244,7 +5254,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5255,103 +5265,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5394,76 +5404,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5504,7 +5514,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5579,13 +5589,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5598,14 +5608,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>170</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5617,7 +5627,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5626,7 +5636,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5648,7 +5658,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5696,25 +5706,25 @@
         <v>63</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5822,13 +5832,13 @@
         <v>124</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5856,7 +5866,7 @@
         <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
   <si>
     <t>6</t>
   </si>
@@ -1423,9 +1423,6 @@
   </si>
   <si>
     <t>Template</t>
-  </si>
-  <si>
-    <t>17,869</t>
   </si>
   <si>
     <t>STATE AL</t>
@@ -2470,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2532,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2804,7 +2801,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>160</v>
@@ -2858,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3017,7 +3014,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -3208,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3400,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3616,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3718,7 +3715,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
@@ -3955,7 +3952,7 @@
         <v>123</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3976,7 +3973,7 @@
         <v>124</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4003,7 +4000,7 @@
         <v>164</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4020,7 +4017,7 @@
         <v>164</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4034,7 +4031,7 @@
         <v>144</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4148,7 +4145,7 @@
         <v>165</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
@@ -4168,7 +4165,7 @@
         <v>166</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
@@ -4218,7 +4215,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4470,10 +4467,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4486,19 +4483,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" t="s">
         <v>180</v>
       </c>
-      <c r="F10" t="s">
-        <v>181</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4509,19 +4506,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4592,116 +4589,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4737,94 +4734,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4861,19 +4858,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>178</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4909,76 +4906,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>226</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>226</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5035,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5099,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5134,64 +5131,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5210,19 +5207,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5254,7 +5251,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5265,103 +5262,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5404,76 +5401,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>128</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5514,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5589,13 +5586,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5608,14 +5605,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5627,7 +5624,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5636,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5658,7 +5655,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5703,28 +5700,28 @@
         <v>106</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5832,13 +5829,13 @@
         <v>124</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5866,7 +5863,7 @@
         <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -1221,18 +1221,6 @@
     <t>MSFL</t>
   </si>
   <si>
-    <t>MSTD</t>
-  </si>
-  <si>
-    <t>MSBO</t>
-  </si>
-  <si>
-    <t>NDHI</t>
-  </si>
-  <si>
-    <t>MSHS</t>
-  </si>
-  <si>
     <t>Planning Dashboard</t>
   </si>
   <si>
@@ -1796,6 +1784,18 @@
   </si>
   <si>
     <t>$499,373</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>Rig</t>
+  </si>
+  <si>
+    <t>Dow</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2297,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G68" sqref="G68"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2489,7 +2489,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2529,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2577,7 +2577,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2693,10 +2693,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2801,10 +2801,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3014,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3101,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3397,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3613,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3715,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3907,7 +3907,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="8"/>
@@ -3931,13 +3931,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3949,10 +3949,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3970,10 +3970,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3991,16 +3991,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,16 +4008,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4025,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4049,10 +4049,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,7 +4092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,7 +4108,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4142,19 +4142,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,19 +4162,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,7 +4182,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4215,7 +4215,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,13 +4386,13 @@
         <v>94</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4413,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4467,10 +4467,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4483,19 +4483,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4506,19 +4506,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4559,10 +4559,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4589,116 +4589,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q18" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="R18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="T18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="N18" s="10" t="s">
+      <c r="V18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="W18" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP18" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="AC18" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD18" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4734,94 +4734,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="H22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="O22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="AD22" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4858,19 +4858,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4906,76 +4906,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="S29" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="T29" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z29" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5032,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5131,64 +5131,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5207,19 +5207,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5251,7 +5251,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5262,103 +5262,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S51" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H51" s="28" t="s">
+      <c r="T51" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K51" s="10" t="s">
+      <c r="W51" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="X51" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y51" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>252</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5401,76 +5401,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="M56" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="M56" s="28" t="s">
+      <c r="N56" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="N56" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="P56" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T56" s="28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="U56" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5511,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5586,13 +5586,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5605,14 +5605,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5633,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5655,7 +5655,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5667,28 +5667,28 @@
         <v>100</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F71" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5697,31 +5697,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5732,85 +5732,85 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="H73" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="W73" t="s">
+        <v>130</v>
+      </c>
+      <c r="X73" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z73" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA73" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>129</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="S73" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="W73" t="s">
-        <v>134</v>
-      </c>
-      <c r="X73" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5818,7 +5818,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5826,16 +5826,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5843,7 +5843,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5851,19 +5851,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5881,10 +5881,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5894,13 +5894,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5908,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,13 +5922,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,13 +5936,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,13 +5950,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5964,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,13 +5978,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="292">
   <si>
     <t>6</t>
   </si>
@@ -1236,18 +1236,6 @@
     <t>AFE Predictor</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>12500</t>
-  </si>
-  <si>
     <t>10000</t>
   </si>
   <si>
@@ -1291,9 +1279,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>0.6 %</t>
@@ -1796,6 +1781,18 @@
   </si>
   <si>
     <t>Dow</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Stg-Ops Forecast Wells</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2306,7 +2303,7 @@
     <col min="2" max="2" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2467,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2489,7 +2486,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2529,7 +2526,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2577,7 +2574,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2596,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2627,7 +2624,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2693,10 +2690,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2750,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2783,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2801,10 +2798,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2855,7 +2852,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,7 +2871,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3014,13 +3011,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3068,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3101,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3262,7 +3259,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3397,7 +3394,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3503,7 +3500,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3551,7 +3548,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3575,7 +3572,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3599,7 +3596,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3613,7 +3610,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3623,7 +3620,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3647,7 +3644,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3671,7 +3668,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3695,7 +3692,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3715,11 +3712,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3743,7 +3740,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3767,7 +3764,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3937,7 +3934,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3949,10 +3946,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3970,10 +3967,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3991,16 +3988,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,16 +4005,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4022,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4049,10 +4046,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4060,7 +4057,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4068,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,7 +4073,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4084,7 +4081,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,7 +4097,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,7 +4105,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4116,7 +4113,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4142,19 +4139,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,19 +4159,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4211,11 +4208,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4467,10 +4464,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4483,19 +4480,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4506,19 +4503,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4559,10 +4556,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4589,116 +4586,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="M18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AE18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AF18" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL18" s="10" t="s">
+      <c r="AP18" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="AM18" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO18" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AP18" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4734,94 +4731,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="I22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="W22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4858,19 +4855,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4906,76 +4903,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="R29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>234</v>
-      </c>
       <c r="V29" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5032,7 +5029,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5096,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5131,64 +5128,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5207,19 +5204,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5262,103 +5259,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="G51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="P51" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K51" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="O51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="P51" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5401,76 +5398,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F56" s="10" t="s">
+      <c r="O56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T56" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="M56" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="P56" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="T56" s="28" t="s">
-        <v>229</v>
-      </c>
       <c r="U56" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="W56" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5511,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5586,13 +5583,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5605,14 +5602,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5624,7 +5621,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5633,7 +5630,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5655,7 +5652,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5667,28 +5664,28 @@
         <v>100</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F71" t="s">
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J71" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5700,28 +5697,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5735,82 +5732,82 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P73" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="R73" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="S73" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="W73" t="s">
         <v>125</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J73" s="17" t="s">
+      <c r="X73" t="s">
         <v>126</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="P73" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="R73" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="S73" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="W73" t="s">
-        <v>130</v>
-      </c>
-      <c r="X73" t="s">
-        <v>131</v>
-      </c>
       <c r="Y73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Z73" s="21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AA73" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AB73" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5818,7 +5815,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
@@ -5826,16 +5823,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5843,7 +5840,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5851,19 +5848,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5881,10 +5878,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5894,13 +5891,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C81" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5905,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C82" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,13 +5919,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C83" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,13 +5933,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C84" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D84" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,13 +5947,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C85" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5961,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C86" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,13 +5975,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C87" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
   <si>
     <t>6</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>0.6 %</t>
@@ -2290,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2464,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2486,7 +2489,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2526,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2574,7 +2577,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2593,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2624,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2690,10 +2693,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2711,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2747,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2765,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2783,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2798,10 +2801,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2819,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2837,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2852,7 +2855,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2871,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3011,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3098,7 +3101,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3202,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3259,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3394,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3500,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3548,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3572,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3596,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3610,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3620,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3644,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3668,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3692,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3712,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3740,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3764,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3934,7 +3937,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3949,7 +3952,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3970,7 +3973,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3994,10 +3997,10 @@
         <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,10 +4014,10 @@
         <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4022,13 +4025,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F78" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4046,10 +4049,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4057,7 +4060,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4073,7 +4076,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4084,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,7 +4092,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,7 +4100,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,7 +4108,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4113,7 +4116,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,7 +4124,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4139,19 +4142,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4159,19 +4162,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4179,7 +4182,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4208,11 +4211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="AE73" sqref="AE73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4464,10 +4467,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4480,19 +4483,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4503,19 +4506,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4556,10 +4559,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4586,116 +4589,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="S18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="AC18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="AM18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4731,94 +4734,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="O22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="W22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA22" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="AB22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="P22" s="10" t="s">
+      <c r="AC22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="AF22" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4855,19 +4858,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="G25" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4903,76 +4906,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="I29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="L29" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="V29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="T29" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="Z29" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5029,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5093,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5128,64 +5131,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="K46" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O46" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="P46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="T46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="T46" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="U46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5204,19 +5207,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5248,7 +5251,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5259,103 +5262,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="I51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="W51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="S51" s="10" t="s">
+      <c r="X51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="T51" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="Y51" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5398,76 +5401,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="H56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="M56" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="V56" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T56" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5508,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5583,13 +5586,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5602,14 +5605,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5621,7 +5624,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5630,7 +5633,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5652,7 +5655,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5676,16 +5679,16 @@
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5697,28 +5700,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5732,7 +5735,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>107</v>
@@ -5741,73 +5744,73 @@
         <v>107</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>109</v>
       </c>
       <c r="J73" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="O73" s="23" t="s">
         <v>110</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R73" s="22" t="s">
         <v>111</v>
       </c>
       <c r="S73" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T73" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U73" s="20" t="s">
         <v>121</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W73" t="s">
+        <v>126</v>
+      </c>
+      <c r="X73" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z73" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA73" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="X73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5826,13 +5829,13 @@
         <v>116</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5860,7 +5863,7 @@
         <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5878,10 +5881,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5891,13 +5894,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="D81" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,13 +5908,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,13 +5922,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +5936,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,13 +5950,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,13 +5964,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +5978,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="292">
   <si>
     <t>6</t>
   </si>
@@ -1279,9 +1279,6 @@
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>0.6 %</t>
@@ -2467,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2489,7 +2486,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2529,7 +2526,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2577,7 +2574,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2596,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2627,7 +2624,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2693,10 +2690,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2714,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2750,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2768,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2786,7 +2783,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2801,10 +2798,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2822,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2840,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2855,7 +2852,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2874,7 +2871,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3014,13 +3011,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3071,7 +3068,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3101,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3205,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3262,7 +3259,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3397,7 +3394,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3503,7 +3500,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3551,7 +3548,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3575,7 +3572,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3599,7 +3596,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3613,7 +3610,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3623,7 +3620,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3647,7 +3644,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3671,7 +3668,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3695,7 +3692,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3715,11 +3712,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3743,7 +3740,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3767,7 +3764,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3937,7 +3934,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3952,7 +3949,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3973,7 +3970,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3997,10 +3994,10 @@
         <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4014,10 +4011,10 @@
         <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,13 +4022,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4049,10 +4046,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4060,7 +4057,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4068,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,7 +4073,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4084,7 +4081,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,7 +4089,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,7 +4097,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4108,7 +4105,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4116,7 +4113,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,7 +4121,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4142,19 +4139,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,19 +4159,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>159</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4182,7 +4179,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4212,10 +4209,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE73" sqref="AE73"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4410,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4467,10 +4464,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4483,19 +4480,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
         <v>171</v>
       </c>
-      <c r="F10" t="s">
-        <v>172</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4506,19 +4503,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4559,10 +4556,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4589,116 +4586,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>262</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4734,94 +4731,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4858,19 +4855,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>169</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4906,76 +4903,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>217</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5032,7 +5029,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5096,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5131,64 +5128,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5207,19 +5204,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5262,103 +5259,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5401,76 +5398,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>229</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5511,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5586,13 +5583,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5605,14 +5602,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5624,7 +5621,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5633,7 +5630,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5655,7 +5652,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5679,16 +5676,16 @@
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" t="s">
         <v>285</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" t="s">
         <v>287</v>
-      </c>
-      <c r="J71" t="s">
-        <v>288</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5700,28 +5697,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5735,7 +5732,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>107</v>
@@ -5744,73 +5741,73 @@
         <v>107</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>109</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="K73" s="17" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="K73" s="17">
+        <v>14</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="M73" s="17" t="s">
+      <c r="N73" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="O73" s="23" t="s">
         <v>110</v>
       </c>
       <c r="P73" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q73" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="R73" s="22" t="s">
         <v>111</v>
       </c>
       <c r="S73" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T73" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U73" s="20" t="s">
         <v>121</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W73" t="s">
+        <v>125</v>
+      </c>
+      <c r="X73" t="s">
         <v>126</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>127</v>
       </c>
-      <c r="Y73" t="s">
-        <v>128</v>
-      </c>
       <c r="Z73" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA73" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AA73" s="21" t="s">
+      <c r="AB73" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5829,13 +5826,13 @@
         <v>116</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5863,7 +5860,7 @@
         <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5881,10 +5878,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5894,13 +5891,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5905,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,13 +5919,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,13 +5933,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,13 +5947,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5961,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,13 +5975,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -784,7 +784,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Filtered Well Count</t>
+Well Count</t>
         </r>
       </text>
     </comment>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="295">
   <si>
     <t>6</t>
   </si>
@@ -1279,6 +1279,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>0.6 %</t>
@@ -1793,6 +1796,12 @@
   </si>
   <si>
     <t>Stg-Ops Forecast Wells</t>
+  </si>
+  <si>
+    <t>H-P 415</t>
+  </si>
+  <si>
+    <t>53H</t>
   </si>
 </sst>
 </file>
@@ -2290,11 +2299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2486,7 +2495,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G6" s="6"/>
       <c r="M6" s="9"/>
@@ -2526,7 +2535,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2574,7 +2583,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G10" s="11"/>
       <c r="M10" s="9"/>
@@ -2593,7 +2602,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2624,7 +2633,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2690,10 +2699,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2711,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2747,7 +2756,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2765,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2783,7 +2792,7 @@
         <v>41</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2798,10 +2807,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2819,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2837,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2852,7 +2861,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -2871,7 +2880,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3011,13 +3020,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>13</v>
@@ -3068,7 +3077,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>21</v>
@@ -3098,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3202,7 +3211,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3259,7 +3268,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>21</v>
@@ -3394,7 +3403,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>21</v>
@@ -3548,7 +3557,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>64</v>
@@ -3572,7 +3581,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>63</v>
@@ -3596,7 +3605,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>63</v>
@@ -3610,7 +3619,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3620,7 +3629,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>63</v>
@@ -3644,7 +3653,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>63</v>
@@ -3668,7 +3677,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>63</v>
@@ -3692,7 +3701,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>63</v>
@@ -3712,11 +3721,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>63</v>
@@ -3740,7 +3749,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>63</v>
@@ -3764,7 +3773,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>63</v>
@@ -3934,7 +3943,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3949,7 +3958,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3970,7 +3979,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -3994,10 +4003,10 @@
         <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,10 +4020,10 @@
         <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4022,13 +4031,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="F78" s="9" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4046,10 +4055,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4057,7 +4066,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4065,7 +4074,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4073,7 +4082,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,7 +4090,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,7 +4098,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,7 +4106,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4105,7 +4114,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4113,7 +4122,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4121,7 +4130,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>41</v>
@@ -4139,19 +4148,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J89" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4159,19 +4168,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J90" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4179,7 +4188,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4208,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
@@ -4410,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4464,10 +4473,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4480,19 +4489,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4503,19 +4512,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4556,10 +4565,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4586,116 +4595,116 @@
         <v>24</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="S18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD18" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="AC18" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF18" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AI18" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>261</v>
-      </c>
       <c r="AM18" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN18" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO18" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP18" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4731,94 +4740,94 @@
         <v>28</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>193</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="O22" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="W22" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA22" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="N22" s="10" t="s">
+      <c r="AB22" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="P22" s="10" t="s">
+      <c r="AC22" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="AF22" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4855,19 +4864,19 @@
         <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>165</v>
-      </c>
       <c r="G25" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4903,76 +4912,76 @@
         <v>43</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="I29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="K29" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="L29" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="U29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="V29" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="T29" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="Z29" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5029,7 +5038,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5093,7 +5102,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5128,64 +5137,64 @@
         <v>51</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="K46" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="O46" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="P46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="T46" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="T46" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="U46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5204,19 +5213,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5248,7 +5257,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5259,103 +5268,103 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="I51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="R51" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="W51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="S51" s="10" t="s">
+      <c r="X51" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="T51" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>242</v>
-      </c>
       <c r="Y51" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5398,76 +5407,76 @@
         <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="G56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="H56" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L56" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="M56" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="U56" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="V56" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="R56" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="S56" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T56" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="U56" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>120</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5508,7 +5517,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5583,13 +5592,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5602,14 +5611,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5621,7 +5630,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5630,7 +5639,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5652,7 +5661,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5676,16 +5685,16 @@
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5697,28 +5706,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N72" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O72" s="17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5732,7 +5741,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>107</v>
@@ -5741,73 +5750,73 @@
         <v>107</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>109</v>
       </c>
       <c r="J73" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="N73" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="K73" s="17">
-        <v>14</v>
-      </c>
-      <c r="L73" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="M73" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="O73" s="23" t="s">
         <v>110</v>
       </c>
       <c r="P73" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R73" s="22" t="s">
         <v>111</v>
       </c>
       <c r="S73" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T73" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U73" s="20" t="s">
         <v>121</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W73" t="s">
+        <v>126</v>
+      </c>
+      <c r="X73" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z73" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA73" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="X73" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5826,13 +5835,13 @@
         <v>116</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5860,7 +5869,7 @@
         <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5878,10 +5887,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5891,13 +5900,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="D81" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,13 +5914,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,13 +5928,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,13 +5942,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,13 +5956,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,13 +5970,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="26" t="s">
         <v>146</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5975,13 +5984,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -2303,7 +2303,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,7 +4006,7 @@
         <v>293</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>293</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4218,10 +4218,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="294">
   <si>
     <t>6</t>
   </si>
@@ -1721,9 +1721,6 @@
   </si>
   <si>
     <t>Effective ROP - 91.33 ft/hr</t>
-  </si>
-  <si>
-    <t>1584CP 3H</t>
   </si>
   <si>
     <t>19,543.80</t>
@@ -2300,10 +2297,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +2532,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2807,7 +2804,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>152</v>
@@ -2861,7 +2858,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3943,7 +3940,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3958,7 +3955,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3979,7 +3976,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4003,10 +4000,10 @@
         <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4020,10 +4017,10 @@
         <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>293</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4037,7 +4034,7 @@
         <v>136</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4218,10 +4215,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4419,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -5592,13 +5589,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5611,14 +5608,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5630,7 +5627,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5639,7 +5636,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5661,7 +5658,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5685,16 +5682,16 @@
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" t="s">
         <v>285</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" t="s">
         <v>287</v>
-      </c>
-      <c r="J71" t="s">
-        <v>288</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5706,28 +5703,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>276</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>277</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5741,7 +5738,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>107</v>
@@ -5750,13 +5747,13 @@
         <v>107</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>109</v>
@@ -5835,10 +5832,10 @@
         <v>116</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
         <v>163</v>

--- a/exceldatanew (2).xlsx
+++ b/exceldatanew (2).xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="295">
   <si>
     <t>6</t>
   </si>
@@ -1726,9 +1726,6 @@
     <t>19,543.80</t>
   </si>
   <si>
-    <t>046H</t>
-  </si>
-  <si>
     <t>11.36</t>
   </si>
   <si>
@@ -1799,6 +1796,12 @@
   </si>
   <si>
     <t>53H</t>
+  </si>
+  <si>
+    <t>RYS</t>
+  </si>
+  <si>
+    <t>OSB</t>
   </si>
 </sst>
 </file>
@@ -2297,10 +2300,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2535,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2804,7 +2807,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="6" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>152</v>
@@ -2858,7 +2861,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="6" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G26" s="11"/>
       <c r="M26" s="9"/>
@@ -3940,7 +3943,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G73" s="11"/>
       <c r="H73" s="8"/>
@@ -3955,7 +3958,7 @@
         <v>115</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3976,7 +3979,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4000,10 +4003,10 @@
         <v>112</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4017,10 +4020,10 @@
         <v>112</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4034,7 +4037,7 @@
         <v>136</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4416,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -5589,13 +5592,13 @@
         <v>75</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>81</v>
@@ -5608,14 +5611,14 @@
         <v>83</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
         <v>82</v>
       </c>
       <c r="M68" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5627,7 +5630,7 @@
       </c>
       <c r="C69" s="19"/>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
         <v>97</v>
@@ -5636,7 +5639,7 @@
         <v>96</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5658,7 +5661,7 @@
         <v>99</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5682,16 +5685,16 @@
         <v>101</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H71" t="s">
         <v>284</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="J71" t="s">
         <v>286</v>
-      </c>
-      <c r="J71" t="s">
-        <v>287</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -5703,28 +5706,28 @@
         <v>102</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E72" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="17" t="s">
         <v>272</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="I72" t="s">
         <v>83</v>
       </c>
       <c r="M72" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="N72" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="N72" s="17" t="s">
+      <c r="O72" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="O72" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="P72" s="16">
         <v>45076</v>
@@ -5738,7 +5741,7 @@
         <v>106</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>107</v>
@@ -5747,13 +5750,13 @@
         <v>107</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>109</v>
